--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316290.543619818</v>
+        <v>1312150.837205862</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9733346.072933471</v>
+        <v>9730396.175981378</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.83407906748268</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>53.27064365780124</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,19 +707,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>9.110409776858027</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968084</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4178928586277</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.02170330568919</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>106.7576173287512</v>
+        <v>371.0457265806144</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,10 +987,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461484</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>83.26578655052715</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.578527755725054</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.8812695548172</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>76.47341699539027</v>
       </c>
       <c r="E8" t="n">
-        <v>100.3318357596014</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.6954452315372</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873669</v>
+        <v>20.35166949961217</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>67.94811786627719</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905902</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362809</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215419</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993882</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177854</v>
+        <v>55.63584681832532</v>
       </c>
       <c r="E13" t="n">
-        <v>53.0796433437026</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442492</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.8454531333891</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456103</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901695</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845443</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326522</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001149</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>255.6447882820776</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750153</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>59.1414652652339</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096562</v>
+        <v>55.63584681832593</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177837</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465748</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442475</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338893</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456086</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901678</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534021</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>18.82190702569959</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.802628176791</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799136</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879329</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665141</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414247</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838871</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828884</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431716</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459957</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643929</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193184</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908567</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147781</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804985</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922178</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736777</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920501</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-4.540393329981637e-13</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1423.684211695074</v>
+        <v>648.8009820296299</v>
       </c>
       <c r="C2" t="n">
-        <v>1423.684211695074</v>
+        <v>255.6254805325605</v>
       </c>
       <c r="D2" t="n">
-        <v>1423.684211695074</v>
+        <v>255.6254805325605</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>255.6254805325605</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477962</v>
+        <v>242.7714461029423</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>233.6490946313496</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>170.1312398443262</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>663.4515315628551</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.710316572947</v>
+        <v>1376.714099066284</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572947</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023268</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023268</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023268</v>
+        <v>1391.402537037508</v>
       </c>
       <c r="V2" t="n">
-        <v>1794.683246726786</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.684211695074</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="X2" t="n">
-        <v>1423.684211695074</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="Y2" t="n">
-        <v>1423.684211695074</v>
+        <v>1049.295727741027</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>50.70568087437682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475492</v>
+        <v>50.78821608954416</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>534.3543019878574</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.32053030316</v>
+        <v>1047.956980597545</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430367</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>352.6951719946211</v>
       </c>
       <c r="C4" t="n">
-        <v>944.9426819363074</v>
+        <v>352.6951719946211</v>
       </c>
       <c r="D4" t="n">
-        <v>813.2074366245622</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E4" t="n">
-        <v>657.6486244837647</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>500.3226896967376</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>575.8072331779778</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>575.8072331779778</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>352.6951719946211</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1346.842705244928</v>
+        <v>1224.909970779223</v>
       </c>
       <c r="C5" t="n">
-        <v>953.6672037478581</v>
+        <v>831.7344692821539</v>
       </c>
       <c r="D5" t="n">
-        <v>568.2260749645259</v>
+        <v>831.7344692821539</v>
       </c>
       <c r="E5" t="n">
-        <v>568.2260749645259</v>
+        <v>429.1509443986984</v>
       </c>
       <c r="F5" t="n">
-        <v>151.3316364945036</v>
+        <v>416.2969099690802</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697128</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737746</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023268</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023268</v>
+        <v>1595.909005810936</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023268</v>
+        <v>1595.909005810936</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023268</v>
+        <v>1224.909970779223</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.337450956325</v>
+        <v>1224.909970779223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1747.337450956325</v>
+        <v>1224.909970779223</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021411</v>
+        <v>661.3930085297613</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622333</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837136</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946013</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777331</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475492</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182855</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675951</v>
+        <v>992.5035598952154</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431024</v>
+        <v>813.1893429707227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W7" t="n">
-        <v>537.711290500062</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X7" t="n">
-        <v>303.630968283045</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.51890709968839</v>
+        <v>146.4338220642345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1364.156581512957</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="C8" t="n">
-        <v>1364.156581512957</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="D8" t="n">
-        <v>978.7154527296248</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1764.651327224354</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.8838060721001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>526.6786881380893</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1704.529089160266</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1383.14986280939</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1069.505009172251</v>
+        <v>800.8136995685214</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579423</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2675.578323579423</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.921993658674</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.227559725469</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.4906955503731</v>
+        <v>216.7257955609481</v>
       </c>
       <c r="C13" t="n">
-        <v>430.081852762556</v>
+        <v>118.316952773131</v>
       </c>
       <c r="D13" t="n">
-        <v>346.2450148112646</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539893</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593277</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.685342236449</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034665</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>955.5022722034665</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>793.2182251326434</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>641.9024390954805</v>
+        <v>216.7257955609481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1558.431545602419</v>
+        <v>1374.479701206712</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.204486731634</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D14" t="n">
-        <v>986.5596330944953</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>655.7723833572338</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572338</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
+        <v>128.6599694654568</v>
+      </c>
+      <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
-      <c r="I14" t="n">
-        <v>62.11912770411573</v>
-      </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>2027.87260570512</v>
       </c>
       <c r="Y14" t="n">
-        <v>1558.431545602419</v>
+        <v>1703.178171771915</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.2285883998836</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998836</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485923</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118225</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034686</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>743.9681452808402</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X16" t="n">
-        <v>724.9561179821537</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.640331944991</v>
+        <v>216.7257955609485</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,7 +5543,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222422</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924207</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662631</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107028</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1325.82389827615</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1842.344180867131</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2247.965549583528</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,43 +6361,43 @@
         <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879677</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,10 +6421,10 @@
         <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286444</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
         <v>594.5974356026478</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142175</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678962</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838401</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1501.557331157736</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
@@ -6616,7 +6616,7 @@
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.642478079686</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463659</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057084</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315957</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174549</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210286</v>
+        <v>1015.065931291253</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1670.843902501812</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965115</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918654</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237449</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123122</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546499</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431891</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071539</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074067</v>
+        <v>225.4160927170957</v>
       </c>
       <c r="L34" t="n">
-        <v>601.555764808277</v>
+        <v>389.5437325908955</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736114</v>
+        <v>575.8353109291595</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904821</v>
+        <v>870.6770655353516</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.54216087294</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376589</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395496</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300092</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124399</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758448</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
         <v>261.1858216803432</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7494,10 +7494,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7585,10 +7585,10 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>270.973130906077</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>637.5111168138437</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,22 +8058,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>98.97569223556138</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837484</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>274.5850301543757</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>400.1079634407266</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115896</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837484</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801679</v>
+        <v>572.6307885465549</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,13 +9252,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>459.8553156798577</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416652</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286861</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,7 +9954,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101137</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>723.5863546247123</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210926</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,13 +11142,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>297.8137645877546</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>259.5312593736118</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372796</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.36262275345313</v>
       </c>
       <c r="E13" t="n">
-        <v>29.84526828095505</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681706</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>62.52064580528909</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905899</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372816</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362792</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>237.0692670214296</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.64177929133038</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993865</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681689</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.506091445786</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>141.8392995744151</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>847810.0914354102</v>
+        <v>846306.2224010094</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>847810.0914354102</v>
+        <v>846306.2224010094</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765701.1680281458</v>
+        <v>765701.168028146</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857983.0485715534</v>
+        <v>857983.0485715533</v>
       </c>
     </row>
     <row r="8">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="C2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="D2" t="n">
+        <v>468863.6630427277</v>
+      </c>
+      <c r="E2" t="n">
+        <v>414333.4609034411</v>
+      </c>
+      <c r="F2" t="n">
+        <v>414333.460903441</v>
+      </c>
+      <c r="G2" t="n">
+        <v>468863.6630427275</v>
+      </c>
+      <c r="H2" t="n">
         <v>468863.6630427276</v>
       </c>
-      <c r="E2" t="n">
-        <v>414333.4609034413</v>
-      </c>
-      <c r="F2" t="n">
-        <v>414333.4609034411</v>
-      </c>
-      <c r="G2" t="n">
-        <v>468863.6630427276</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>468863.6630427277</v>
       </c>
-      <c r="I2" t="n">
-        <v>468863.6630427276</v>
-      </c>
       <c r="J2" t="n">
-        <v>468863.663042728</v>
+        <v>468863.6630427282</v>
       </c>
       <c r="K2" t="n">
+        <v>468863.6630427275</v>
+      </c>
+      <c r="L2" t="n">
         <v>468863.6630427277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>468863.6630427268</v>
       </c>
       <c r="M2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="N2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="O2" t="n">
         <v>468863.6630427277</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.85189012250345e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277114</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26427,10 +26427,10 @@
         <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845215</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761035</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="P4" t="n">
         <v>186364.8769761036</v>
-      </c>
-      <c r="P4" t="n">
-        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1580.197438093019</v>
+        <v>3072.022183081703</v>
       </c>
       <c r="C6" t="n">
-        <v>180624.7508537626</v>
+        <v>176930.6792171367</v>
       </c>
       <c r="D6" t="n">
-        <v>172880.170150142</v>
+        <v>165143.8809267506</v>
       </c>
       <c r="E6" t="n">
-        <v>110418.919245035</v>
+        <v>110209.1876983451</v>
       </c>
       <c r="F6" t="n">
-        <v>222541.480719079</v>
+        <v>222331.7491723895</v>
       </c>
       <c r="G6" t="n">
-        <v>176903.6912144225</v>
+        <v>176903.6912144224</v>
       </c>
       <c r="H6" t="n">
-        <v>224329.0167511045</v>
+        <v>224329.0167511042</v>
       </c>
       <c r="I6" t="n">
-        <v>224329.0167511044</v>
+        <v>224329.0167511047</v>
       </c>
       <c r="J6" t="n">
-        <v>11287.09915381952</v>
+        <v>17803.3843083926</v>
       </c>
       <c r="K6" t="n">
         <v>218089.2483483214</v>
       </c>
       <c r="L6" t="n">
-        <v>162906.6594136995</v>
+        <v>158857.8222032281</v>
       </c>
       <c r="M6" t="n">
-        <v>182128.1872914813</v>
+        <v>181076.4922802933</v>
       </c>
       <c r="N6" t="n">
-        <v>224329.0167511043</v>
+        <v>224329.0167511044</v>
       </c>
       <c r="O6" t="n">
-        <v>196561.3227083333</v>
+        <v>196561.3227083332</v>
       </c>
       <c r="P6" t="n">
         <v>224329.0167511043</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660702</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>311.7236105671382</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>267.571576271373</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.78297167134949</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627223</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>23.65888910788266</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>240.475394742445</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>302.2735106281256</v>
+        <v>37.98540137626247</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027058</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>104.1482203229613</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.7774107486632</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>50.0424959733038</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>305.1133005001087</v>
       </c>
       <c r="E8" t="n">
-        <v>298.2258538750195</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.66049327285103</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,10 +28023,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634530101</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,16 +28989,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.71049010668918</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.63600263452912</v>
+        <v>35.7104901066887</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.272237659013</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901181</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566148</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>81.10808140893155</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>106.868342022471</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861253688</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485211</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30402,25 +30402,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634528936</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>127.9147277268397</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344365</v>
+        <v>487.7860652161164</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.378756902228032</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>189.212917300209</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029425</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749318</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260013</v>
+        <v>487.2586756923882</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257278</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815418</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167518</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488434</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257295</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.251623847524</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488451</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,13 +35972,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032134008</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N21" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,16 +36285,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594811</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565491</v>
+        <v>201.4959849287087</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907926</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004798</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114541997</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272228</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>631.1992325754004</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114478</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273782</v>
+        <v>43.49509683159827</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220367</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791203</v>
+        <v>76.79385455031189</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868811</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220911</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496157</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516621</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,10 +37713,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37862,13 +37862,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
